--- a/HH_Projects/04_Currency/Data_Files/Source_Files/acadian_universe.xlsx
+++ b/HH_Projects/04_Currency/Data_Files/Source_Files/acadian_universe.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Job\GitHub Repository\HH_Codebase\HH_Projects\04_Currency\Data_Files\Source_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4CDDCD-AC46-4300-B46E-956C56B69F89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0B0B2A-B6BA-4606-9E9C-7600E78C14A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Switchers" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Switchers!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Switchers!$A$1:$D$105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -910,7 +910,7 @@
   <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2223,7 +2223,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{5A46B93C-22CC-4CE2-B3D0-665A294CCB0F}"/>
+  <autoFilter ref="A1:D105" xr:uid="{5A46B93C-22CC-4CE2-B3D0-665A294CCB0F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
